--- a/PM-Sheets/PM-Sheet_BAUX(1).xlsx
+++ b/PM-Sheets/PM-Sheet_BAUX(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\PM-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4270989-D4B1-46EB-9FC3-50C26C305F2E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86CA9E-5299-4A6A-9B86-DBAC4E592FB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Planung</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PM-Sheet</t>
-  </si>
-  <si>
     <t>Armin Hamzic, Pero Djukic and Amin Taha</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Remain</t>
+  </si>
+  <si>
+    <t>PM-Sheet (1)</t>
   </si>
 </sst>
 </file>
@@ -867,8 +867,8 @@
   </sheetPr>
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -893,28 +893,28 @@
     <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="8">
-        <v>43489</v>
+        <v>43496</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -926,28 +926,28 @@
     </row>
     <row r="7" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="1" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -995,22 +995,25 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1018,19 +1021,25 @@
         <v>0.5</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1038,22 +1047,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" t="s">
         <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
       </c>
       <c r="H14">
         <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
